--- a/NEON_replication_package/RQ3/RQ3results.xlsx
+++ b/NEON_replication_package/RQ3/RQ3results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="8" r:id="rId1"/>
@@ -15,13 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
-  <si>
-    <t>TOPIC 1</t>
-  </si>
-  <si>
-    <t>TOPIC 2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>TOTAL</t>
   </si>
@@ -89,21 +83,6 @@
     <t>react-native</t>
   </si>
   <si>
-    <t>TOPIC 1 - BUG</t>
-  </si>
-  <si>
-    <t>TOPIC 2 - ENHANCEMENT</t>
-  </si>
-  <si>
-    <t>TOPIC 3 - QUESTION</t>
-  </si>
-  <si>
-    <t>TOPIC 4 - AREA BUILD</t>
-  </si>
-  <si>
-    <t>TOPIC 5 - DOCUMENTATION</t>
-  </si>
-  <si>
     <t>PROJECT 1 TOTAL HEURISTICS</t>
   </si>
   <si>
@@ -137,20 +116,67 @@
     <t>PowerShell - spring-boot</t>
   </si>
   <si>
-    <t>SIMILAR PATTERNS</t>
+    <t>ISSUE TYPE "BUG"</t>
+  </si>
+  <si>
+    <t>H1 in H2</t>
+  </si>
+  <si>
+    <t>H2 in H1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> H1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≡ H2</t>
+    </r>
+  </si>
+  <si>
+    <t>PATTERNS WITH SHARED CONDITIONS</t>
+  </si>
+  <si>
+    <t>ISSUE TYPE "ENHANCEMENT"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BUG</t>
+  </si>
+  <si>
+    <t>ENHANCEMENT</t>
+  </si>
+  <si>
+    <t>QUESTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AREA BUILD</t>
+  </si>
+  <si>
+    <t>DOCUMENTATION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -167,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -222,6 +248,43 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -248,25 +311,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -577,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,27 +660,27 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5">
         <v>194</v>
@@ -633,7 +700,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5">
         <v>147</v>
@@ -653,7 +720,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5">
         <v>12</v>
@@ -673,7 +740,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5">
         <v>9</v>
@@ -693,7 +760,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5">
         <v>14</v>
@@ -713,7 +780,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5">
         <v>13</v>
@@ -733,7 +800,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5">
         <v>9</v>
@@ -753,7 +820,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5">
         <v>0</v>
@@ -773,7 +840,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="5">
         <v>52</v>
@@ -793,7 +860,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5">
         <v>8</v>
@@ -813,7 +880,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5">
         <v>32</v>
@@ -833,7 +900,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5">
         <v>120</v>
@@ -853,7 +920,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5">
         <v>57</v>
@@ -873,7 +940,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="5">
         <v>0</v>
@@ -893,7 +960,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="5">
         <v>30</v>
@@ -913,7 +980,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="5">
         <v>14</v>
@@ -933,7 +1000,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="5">
         <v>57</v>
@@ -953,7 +1020,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="5">
         <v>38</v>
@@ -973,7 +1040,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="5">
         <v>20</v>
@@ -993,7 +1060,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="5">
         <v>36</v>
@@ -1013,7 +1080,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B23" s="7">
         <f>SUM(B3:B22)</f>
@@ -1044,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,220 +1122,304 @@
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="9">
+        <v>102</v>
+      </c>
+      <c r="C3" s="9">
+        <v>45</v>
+      </c>
+      <c r="D3" s="9">
+        <v>6</v>
+      </c>
+      <c r="E3" s="10">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10">
+        <v>7</v>
+      </c>
+      <c r="G3" s="10">
+        <f>SUM(D3:F3)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="9">
+        <v>102</v>
+      </c>
+      <c r="C4" s="9">
+        <v>39</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10">
+        <v>7</v>
+      </c>
+      <c r="G4" s="10">
+        <f>SUM(D4:F4)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="9">
+        <v>45</v>
+      </c>
+      <c r="C5" s="9">
+        <v>39</v>
+      </c>
+      <c r="D5" s="12">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13">
+        <v>2</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <f>SUM(D5:F5)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="9">
+        <v>185</v>
+      </c>
+      <c r="C9" s="9">
+        <v>19</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
+        <v>5</v>
+      </c>
+      <c r="F9" s="10">
+        <v>4</v>
+      </c>
+      <c r="G9" s="10">
+        <f>SUM(D9:F9)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="9">
+        <v>185</v>
+      </c>
+      <c r="C10" s="9">
+        <v>105</v>
+      </c>
+      <c r="D10" s="9">
+        <v>3</v>
+      </c>
+      <c r="E10" s="10">
+        <v>8</v>
+      </c>
+      <c r="F10" s="10">
+        <v>18</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(D10:F10)</f>
         <v>29</v>
       </c>
-      <c r="C2" s="8" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="9">
+        <v>185</v>
+      </c>
+      <c r="C11" s="9">
+        <v>117</v>
+      </c>
+      <c r="D11" s="12">
+        <v>20</v>
+      </c>
+      <c r="E11" s="13">
+        <v>3</v>
+      </c>
+      <c r="F11" s="13">
+        <v>12</v>
+      </c>
+      <c r="G11" s="10">
+        <f>SUM(D11:F11)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="8">
-        <v>102</v>
-      </c>
-      <c r="C3" s="8">
-        <v>45</v>
-      </c>
-      <c r="D3" s="8">
-        <v>15</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="8">
-        <v>102</v>
-      </c>
-      <c r="C4" s="8">
-        <v>39</v>
-      </c>
-      <c r="D4" s="8">
-        <v>12</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="B12" s="9">
+        <v>19</v>
+      </c>
+      <c r="C12" s="9">
+        <v>105</v>
+      </c>
+      <c r="D12" s="9">
+        <v>4</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2</v>
+      </c>
+      <c r="F12" s="10">
+        <v>5</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(D12:F12)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="9">
+        <v>19</v>
+      </c>
+      <c r="C13" s="9">
+        <v>117</v>
+      </c>
+      <c r="D13" s="9">
+        <v>10</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <f>SUM(D13:F13)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="8">
-        <v>45</v>
-      </c>
-      <c r="C5" s="8">
-        <v>39</v>
-      </c>
-      <c r="D5" s="8">
-        <v>6</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="B14" s="9">
+        <v>105</v>
+      </c>
+      <c r="C14" s="9">
+        <v>117</v>
+      </c>
+      <c r="D14" s="9">
+        <v>20</v>
+      </c>
+      <c r="E14" s="10">
+        <v>5</v>
+      </c>
+      <c r="F14" s="10">
+        <v>4</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(D14:F14)</f>
         <v>29</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="8">
-        <v>185</v>
-      </c>
-      <c r="C10" s="8">
-        <v>19</v>
-      </c>
-      <c r="D10" s="8">
-        <v>10</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="8">
-        <v>185</v>
-      </c>
-      <c r="C11" s="8">
-        <v>105</v>
-      </c>
-      <c r="D11" s="8">
-        <v>29</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="8">
-        <v>185</v>
-      </c>
-      <c r="C12" s="8">
-        <v>117</v>
-      </c>
-      <c r="D12" s="8">
-        <v>35</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="8">
-        <v>19</v>
-      </c>
-      <c r="C13" s="8">
-        <v>105</v>
-      </c>
-      <c r="D13" s="8">
-        <v>11</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="8">
-        <v>19</v>
-      </c>
-      <c r="C14" s="8">
-        <v>117</v>
-      </c>
-      <c r="D14" s="8">
-        <v>10</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="8">
-        <v>105</v>
-      </c>
-      <c r="C15" s="8">
-        <v>117</v>
-      </c>
-      <c r="D15" s="8">
-        <v>29</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="G3:G5 G9:G14" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>